--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\Data Kuliah\SMT 7\Mechine Learning\Tubes\tubesPrak_171-173\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C30F4F2-A217-4FE4-8AC0-0512A2E87A0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1826B-50B3-470E-B59D-0B10EE4EA48D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4DF276D9-079A-4F51-A4F0-0A87F36BF914}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="11490" xr2:uid="{4DF276D9-079A-4F51-A4F0-0A87F36BF914}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t xml:space="preserve">NO </t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Preprocessing </t>
   </si>
   <si>
-    <t>Modelling</t>
-  </si>
-  <si>
     <t>model evaluation</t>
   </si>
   <si>
@@ -86,10 +83,28 @@
     <t>lupita</t>
   </si>
   <si>
-    <t>Finished</t>
-  </si>
-  <si>
     <t>Waiting</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TANGGAL UPDATE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>27 Ot 2021</t>
   </si>
 </sst>
 </file>
@@ -133,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +158,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5246DEEB-95A8-4D96-9464-EFC43107A238}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +490,11 @@
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,15 +514,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>44479</v>
@@ -514,96 +536,162 @@
       <c r="F2" s="3">
         <v>44479</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44482</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44488</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44488</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44494</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44494</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44496</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44494</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\Data Kuliah\SMT 7\Mechine Learning\Tubes\tubesPrak_171-173\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1826B-50B3-470E-B59D-0B10EE4EA48D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8F5A1-E1A7-4452-B3FE-307A494F059C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="11490" xr2:uid="{4DF276D9-079A-4F51-A4F0-0A87F36BF914}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t xml:space="preserve">NO </t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Model 1</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
   </si>
   <si>
     <t>27 Ot 2021</t>
@@ -479,7 +476,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +576,12 @@
       <c r="E4" s="3">
         <v>44496</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3">
+        <v>44496</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,12 +595,14 @@
         <v>44494</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44496</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
